--- a/src/ACAT/grades/FA24/COMP-103_FA24_01_course_data.xlsx
+++ b/src/ACAT/grades/FA24/COMP-103_FA24_01_course_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raghava_Master's\Professional Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{016B5CD6-1822-45BD-A3E8-53E2F96C8FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36696603-3E8B-41E7-B8C5-B00EF9023C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{E33AD9D8-5EBB-4BBB-BB69-B98DD06B5CC1}"/>
   </bookViews>
@@ -34,22 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">Student_1      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student_2      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student_3      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student_4      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student_5      </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SIS User ID</t>
   </si>
@@ -426,7 +411,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -439,21 +424,21 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
+      <c r="A2" s="3">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -465,8 +450,8 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="3">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>95</v>
@@ -478,8 +463,8 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="A4" s="3">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>92</v>
@@ -491,8 +476,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="3">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -504,8 +489,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
+      <c r="A6" s="3">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>83</v>
